--- a/output/Biblio- Resort 23-24 . Invo.xlsx_output.xlsx
+++ b/output/Biblio- Resort 23-24 . Invo.xlsx_output.xlsx
@@ -121,7 +121,6 @@
     <t xml:space="preserve">spo 18.02 to 28.02 :
 first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  senior  price with offers  total price    contract name   
 2024-02-23  2024-02-29     33          -0.0           -0.0         -0.0       -0.0        -0.0    7 days 231.0    -0.0        231.0           231.0     spo 18.02 to 28.02 
-2024-03-01  2024-02-29     46          -0.0           -0.0         -0.0       -0.0        -0.0    0 days   0.0    -0.0          0.0           231.0     spo 18.02 to 28.02 
 </t>
   </si>
   <si>
@@ -155,19 +154,10 @@
   <si>
     <t xml:space="preserve">spo 03.02 to 17.02:
 first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  senior  price with offers  total price   contract name   
-2024-02-26  2024-03-01     33          -0.0           -0.0         -0.0       -0.0        -0.0    5 days 165.0    -0.0        165.0           165.0     spo 03.02 to 17.02
-spo 15.01 to 02.02:
+2024-02-26  2024-02-29     33          -0.0           -0.0         -0.0       -0.0        -0.0    4 days 132.0    -0.0        132.0           132.0     spo 03.02 to 17.02
+spo 24.11 to 24.11:
 first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  senior  price with offers  total price   contract name   
-2024-03-01     NaT        NaN          NaN            NaN          NaN        NaN         NaN      NaT    NaN     NaN          NaN             NaN      spo 15.01 to 02.02
-spo 21.12 to 14.01:
-first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  senior  price with offers  total price   contract name   
-2024-03-01     NaT        NaN          NaN            NaN          NaN        NaN         NaN      NaT    NaN     NaN          NaN             NaN      spo 21.12 to 14.01
-spo 25.11 to 20.12:
-first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2 Nights  price  senior  price with offers  total price   contract name   
-2024-02-16     NaT        NaN          NaN            NaN          NaN        NaN         NaN      NaT    NaN     NaN          NaN             NaN      spo 25.11 to 20.12
-spo 24.11 to 24.11:
-first date second date  SGL - DLX  earlyBooking1  earlyBooking2  longTerm  reduction1  reduction2  Nights  price  senior  price with offers  total price   contract name   
-2024-02-16  2024-03-03     40          -0.0           -0.0         -0.0       -0.0        -0.0    17 days 680.0    -0.0        680.0           680.0     spo 24.11 to 24.11
+2024-03-01  2024-03-04     40          -0.0           -0.0         -0.0       -0.0        -0.0    4 days 160.0    -0.0        160.0           160.0     spo 24.11 to 24.11
 </t>
   </si>
   <si>
@@ -1337,8 +1327,14 @@
       <c r="R12">
         <v>0</v>
       </c>
+      <c r="S12">
+        <v>292</v>
+      </c>
       <c r="T12" t="s">
         <v>37</v>
+      </c>
+      <c r="U12">
+        <v>-113</v>
       </c>
     </row>
     <row r="13" spans="1:21">
